--- a/2018elections/20180427-yesi/build/data/_raw/YESI State MN.xlsx
+++ b/2018elections/20180427-yesi/build/data/_raw/YESI State MN.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkawas01\Box Sync\Default Sync Folder\YESI 2018\YESI2018 Final files KKG check\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18072" windowHeight="12528" tabRatio="868"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="18080" windowHeight="12520" tabRatio="868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Senate YESI 18" sheetId="5" r:id="rId1"/>
     <sheet name="Gubernatorial 2018 YESI" sheetId="4" r:id="rId2"/>
     <sheet name="All 2018 YESI states" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -848,14 +848,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -912,26 +912,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -946,16 +946,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -964,7 +964,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -975,19 +975,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1050,7 +1050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1085,7 +1085,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,52 +1296,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DE1" workbookViewId="0">
+    <sheetView topLeftCell="DE1" workbookViewId="0">
       <selection activeCell="DR7" sqref="DR7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="27"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="10"/>
-    <col min="15" max="15" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="27"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="10"/>
+    <col min="15" max="15" width="8.83203125" style="10"/>
     <col min="18" max="18" width="11.6640625" style="8" customWidth="1"/>
-    <col min="19" max="20" width="8.88671875" style="10"/>
-    <col min="23" max="23" width="8.88671875" style="10"/>
-    <col min="24" max="24" width="8.88671875" style="6"/>
-    <col min="27" max="27" width="16.109375" style="10" customWidth="1"/>
-    <col min="28" max="30" width="8.88671875" style="10"/>
-    <col min="32" max="40" width="8.88671875" style="9"/>
-    <col min="41" max="41" width="13.5546875" style="9" customWidth="1"/>
-    <col min="42" max="43" width="8.88671875" style="9"/>
-    <col min="44" max="46" width="8.88671875" style="7"/>
-    <col min="47" max="48" width="8.88671875" style="10"/>
-    <col min="49" max="52" width="8.88671875" style="11"/>
-    <col min="67" max="67" width="11.21875" style="8" customWidth="1"/>
-    <col min="68" max="69" width="8.88671875" style="10"/>
-    <col min="75" max="77" width="8.88671875" style="12"/>
-    <col min="78" max="95" width="8.88671875" style="15"/>
-    <col min="96" max="96" width="8.88671875" style="14"/>
-    <col min="99" max="99" width="8.88671875" style="2"/>
+    <col min="19" max="20" width="8.83203125" style="10"/>
+    <col min="23" max="23" width="8.83203125" style="10"/>
+    <col min="24" max="24" width="8.83203125" style="6"/>
+    <col min="27" max="27" width="16.1640625" style="10" customWidth="1"/>
+    <col min="28" max="30" width="8.83203125" style="10"/>
+    <col min="32" max="40" width="8.83203125" style="9"/>
+    <col min="41" max="41" width="13.5" style="9" customWidth="1"/>
+    <col min="42" max="43" width="8.83203125" style="9"/>
+    <col min="44" max="46" width="8.83203125" style="7"/>
+    <col min="47" max="48" width="8.83203125" style="10"/>
+    <col min="49" max="52" width="8.83203125" style="11"/>
+    <col min="67" max="67" width="11.1640625" style="8" customWidth="1"/>
+    <col min="68" max="69" width="8.83203125" style="10"/>
+    <col min="75" max="77" width="8.83203125" style="12"/>
+    <col min="78" max="95" width="8.83203125" style="15"/>
+    <col min="96" max="96" width="8.83203125" style="14"/>
+    <col min="99" max="99" width="8.83203125" style="2"/>
     <col min="100" max="100" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="18.33203125" customWidth="1"/>
-    <col min="102" max="102" width="14.44140625" customWidth="1"/>
-    <col min="103" max="103" width="10.21875" style="5" customWidth="1"/>
-    <col min="104" max="104" width="15.88671875" customWidth="1"/>
-    <col min="105" max="105" width="8.88671875" style="27"/>
+    <col min="102" max="102" width="14.5" customWidth="1"/>
+    <col min="103" max="103" width="10.1640625" style="5" customWidth="1"/>
+    <col min="104" max="104" width="15.83203125" customWidth="1"/>
+    <col min="105" max="105" width="8.83203125" style="27"/>
     <col min="106" max="106" width="0" hidden="1" customWidth="1"/>
     <col min="108" max="108" width="0" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="8.88671875" style="6" customWidth="1"/>
+    <col min="109" max="109" width="8.83203125" style="6" customWidth="1"/>
     <col min="110" max="110" width="0" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="0" hidden="1" customWidth="1"/>
-    <col min="114" max="114" width="13.77734375" hidden="1" customWidth="1"/>
+    <col min="114" max="114" width="13.83203125" hidden="1" customWidth="1"/>
     <col min="115" max="116" width="0" hidden="1" customWidth="1"/>
-    <col min="117" max="117" width="8.88671875" style="10"/>
+    <col min="117" max="117" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" s="16" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:117" s="16" customFormat="1" ht="75.5" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:117">
       <c r="A2" t="s">
         <v>186</v>
       </c>
@@ -2052,7 +2052,12 @@
     <sortCondition ref="H2:H52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2060,57 +2065,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5220" ySplit="1728" topLeftCell="D1" activePane="bottomRight"/>
-      <selection activeCell="H2" sqref="G1:H1048576"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1:N1048576"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="35"/>
+    <col min="14" max="14" width="8.83203125" style="35"/>
     <col min="15" max="15" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="10"/>
-    <col min="19" max="19" width="8.88671875" style="10"/>
+    <col min="16" max="16" width="8.83203125" style="10"/>
+    <col min="19" max="19" width="8.83203125" style="10"/>
     <col min="22" max="22" width="11.6640625" style="8" customWidth="1"/>
-    <col min="23" max="24" width="8.88671875" style="10"/>
-    <col min="27" max="27" width="8.88671875" style="10"/>
-    <col min="28" max="28" width="8.88671875" style="6"/>
-    <col min="31" max="31" width="16.109375" style="10" customWidth="1"/>
-    <col min="32" max="34" width="8.88671875" style="10"/>
-    <col min="36" max="44" width="8.88671875" style="9"/>
-    <col min="45" max="45" width="13.5546875" style="9" customWidth="1"/>
-    <col min="46" max="47" width="8.88671875" style="9"/>
-    <col min="48" max="50" width="8.88671875" style="7"/>
-    <col min="51" max="52" width="8.88671875" style="10"/>
-    <col min="53" max="56" width="8.88671875" style="11"/>
-    <col min="71" max="71" width="11.21875" style="8" customWidth="1"/>
-    <col min="72" max="73" width="8.88671875" style="10"/>
-    <col min="79" max="81" width="8.88671875" style="12"/>
-    <col min="82" max="99" width="8.88671875" style="15"/>
-    <col min="100" max="100" width="8.88671875" style="14"/>
-    <col min="103" max="103" width="8.88671875" style="2"/>
+    <col min="23" max="24" width="8.83203125" style="10"/>
+    <col min="27" max="27" width="8.83203125" style="10"/>
+    <col min="28" max="28" width="8.83203125" style="6"/>
+    <col min="31" max="31" width="16.1640625" style="10" customWidth="1"/>
+    <col min="32" max="34" width="8.83203125" style="10"/>
+    <col min="36" max="44" width="8.83203125" style="9"/>
+    <col min="45" max="45" width="13.5" style="9" customWidth="1"/>
+    <col min="46" max="47" width="8.83203125" style="9"/>
+    <col min="48" max="50" width="8.83203125" style="7"/>
+    <col min="51" max="52" width="8.83203125" style="10"/>
+    <col min="53" max="56" width="8.83203125" style="11"/>
+    <col min="71" max="71" width="11.1640625" style="8" customWidth="1"/>
+    <col min="72" max="73" width="8.83203125" style="10"/>
+    <col min="79" max="81" width="8.83203125" style="12"/>
+    <col min="82" max="99" width="8.83203125" style="15"/>
+    <col min="100" max="100" width="8.83203125" style="14"/>
+    <col min="103" max="103" width="8.83203125" style="2"/>
     <col min="104" max="104" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="18.33203125" customWidth="1"/>
-    <col min="106" max="106" width="14.44140625" customWidth="1"/>
-    <col min="107" max="107" width="10.21875" style="5" customWidth="1"/>
-    <col min="108" max="108" width="15.88671875" customWidth="1"/>
-    <col min="109" max="109" width="8.88671875" style="27"/>
+    <col min="106" max="106" width="14.5" customWidth="1"/>
+    <col min="107" max="107" width="10.1640625" style="5" customWidth="1"/>
+    <col min="108" max="108" width="15.83203125" customWidth="1"/>
+    <col min="109" max="109" width="8.83203125" style="27"/>
     <col min="110" max="110" width="0" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="0" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="8.88671875" style="6" customWidth="1"/>
+    <col min="113" max="113" width="8.83203125" style="6" customWidth="1"/>
     <col min="114" max="114" width="0" hidden="1" customWidth="1"/>
     <col min="116" max="116" width="0" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="13.77734375" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="13.83203125" hidden="1" customWidth="1"/>
     <col min="119" max="120" width="0" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="8.88671875" style="10"/>
+    <col min="121" max="121" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="16" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:121" s="16" customFormat="1" ht="75.5" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:121">
       <c r="A2" t="s">
         <v>186</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:121">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:121">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:121">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:121">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:121">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:121">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:121">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:121">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:121">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:121">
       <c r="A12" t="s">
         <v>264</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="13" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:121">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -6803,7 +6804,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:121">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:121">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="16" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:121">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="17" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:121">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="18" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:121">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -8615,7 +8616,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:121">
       <c r="A19" t="s">
         <v>252</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:121">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="21" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:121">
       <c r="A21" t="s">
         <v>228</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="22" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:121">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:121">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:121">
       <c r="A24" t="s">
         <v>225</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="25" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:121">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:121">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -11503,7 +11504,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="27" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:121">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -11859,7 +11860,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="28" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:121">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -12223,7 +12224,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="29" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:121">
       <c r="A29" t="s">
         <v>267</v>
       </c>
@@ -12587,7 +12588,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:121">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:121">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -13315,7 +13316,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:121">
       <c r="A32" t="s">
         <v>198</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="33" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:121">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -14035,7 +14036,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:121">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -14391,7 +14392,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="35" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:121">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -14747,7 +14748,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="36" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:121">
       <c r="A36" t="s">
         <v>126</v>
       </c>
@@ -15109,7 +15110,12 @@
     <sortCondition ref="N2:N52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15117,58 +15123,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="3300" ySplit="1728" activePane="bottomRight"/>
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="31"/>
+    <col min="10" max="10" width="8.83203125" style="31"/>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="35"/>
-    <col min="16" max="16" width="8.88671875" style="10"/>
-    <col min="19" max="19" width="8.88671875" style="10"/>
+    <col min="14" max="14" width="8.83203125" style="35"/>
+    <col min="16" max="16" width="8.83203125" style="10"/>
+    <col min="19" max="19" width="8.83203125" style="10"/>
     <col min="22" max="22" width="11.6640625" style="8" customWidth="1"/>
-    <col min="23" max="24" width="8.88671875" style="10"/>
-    <col min="27" max="27" width="8.88671875" style="10"/>
-    <col min="28" max="28" width="8.88671875" style="6"/>
-    <col min="31" max="31" width="16.109375" style="10" customWidth="1"/>
-    <col min="32" max="34" width="8.88671875" style="10"/>
-    <col min="36" max="44" width="8.88671875" style="9"/>
-    <col min="45" max="45" width="13.5546875" style="9" customWidth="1"/>
-    <col min="46" max="47" width="8.88671875" style="9"/>
-    <col min="48" max="50" width="8.88671875" style="7"/>
-    <col min="51" max="52" width="8.88671875" style="10"/>
-    <col min="53" max="56" width="8.88671875" style="11"/>
-    <col min="71" max="71" width="11.21875" style="8" customWidth="1"/>
-    <col min="72" max="73" width="8.88671875" style="10"/>
-    <col min="79" max="81" width="8.88671875" style="12"/>
-    <col min="82" max="99" width="8.88671875" style="15"/>
-    <col min="100" max="100" width="8.88671875" style="14"/>
-    <col min="103" max="103" width="8.88671875" style="2"/>
+    <col min="23" max="24" width="8.83203125" style="10"/>
+    <col min="27" max="27" width="8.83203125" style="10"/>
+    <col min="28" max="28" width="8.83203125" style="6"/>
+    <col min="31" max="31" width="16.1640625" style="10" customWidth="1"/>
+    <col min="32" max="34" width="8.83203125" style="10"/>
+    <col min="36" max="44" width="8.83203125" style="9"/>
+    <col min="45" max="45" width="13.5" style="9" customWidth="1"/>
+    <col min="46" max="47" width="8.83203125" style="9"/>
+    <col min="48" max="50" width="8.83203125" style="7"/>
+    <col min="51" max="52" width="8.83203125" style="10"/>
+    <col min="53" max="56" width="8.83203125" style="11"/>
+    <col min="71" max="71" width="11.1640625" style="8" customWidth="1"/>
+    <col min="72" max="73" width="8.83203125" style="10"/>
+    <col min="79" max="81" width="8.83203125" style="12"/>
+    <col min="82" max="99" width="8.83203125" style="15"/>
+    <col min="100" max="100" width="8.83203125" style="14"/>
+    <col min="103" max="103" width="8.83203125" style="2"/>
     <col min="104" max="104" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="18.33203125" customWidth="1"/>
-    <col min="106" max="106" width="14.44140625" customWidth="1"/>
-    <col min="107" max="107" width="10.21875" style="5" customWidth="1"/>
-    <col min="108" max="108" width="15.88671875" customWidth="1"/>
-    <col min="109" max="109" width="8.88671875" style="27"/>
+    <col min="106" max="106" width="14.5" customWidth="1"/>
+    <col min="107" max="107" width="10.1640625" style="5" customWidth="1"/>
+    <col min="108" max="108" width="15.83203125" customWidth="1"/>
+    <col min="109" max="109" width="8.83203125" style="27"/>
     <col min="110" max="110" width="0" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="0" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="8.88671875" style="6" customWidth="1"/>
+    <col min="113" max="113" width="8.83203125" style="6" customWidth="1"/>
     <col min="114" max="114" width="0" hidden="1" customWidth="1"/>
     <col min="116" max="116" width="0" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="13.77734375" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="13.83203125" hidden="1" customWidth="1"/>
     <col min="119" max="120" width="0" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="8.88671875" style="10"/>
+    <col min="121" max="121" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="16" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:121" s="16" customFormat="1" ht="75.5" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -15533,7 +15535,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:121">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -15889,7 +15891,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:121">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -16245,7 +16247,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:121">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -16609,7 +16611,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:121">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -16965,7 +16967,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:121">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -17329,7 +17331,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:121">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -17685,7 +17687,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:121">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -18049,7 +18051,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:121">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -18405,7 +18407,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:121">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -18753,7 +18755,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:121">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -19117,7 +19119,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="12" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:121">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -19473,7 +19475,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="13" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:121">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -19837,7 +19839,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:121">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -20193,7 +20195,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:121">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -20549,7 +20551,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="16" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:121">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -20905,7 +20907,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="17" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:121">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -21261,7 +21263,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="18" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:121">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -21617,7 +21619,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="19" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:121">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -21965,7 +21967,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="20" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:121">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -22313,7 +22315,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="21" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:121">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -22677,7 +22679,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="22" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:121">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -23041,7 +23043,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:121">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -23405,7 +23407,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="24" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:121">
       <c r="A24" t="s">
         <v>183</v>
       </c>
@@ -23769,7 +23771,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:121">
       <c r="A25" t="s">
         <v>186</v>
       </c>
@@ -24133,7 +24135,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:121">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -24489,7 +24491,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:121">
       <c r="A27" t="s">
         <v>192</v>
       </c>
@@ -24845,7 +24847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:121">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -25201,7 +25203,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="29" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:121">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -25565,7 +25567,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:121">
       <c r="A30" t="s">
         <v>201</v>
       </c>
@@ -25929,7 +25931,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="31" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:121">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -26285,7 +26287,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:121">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -26641,7 +26643,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:121">
       <c r="A33" t="s">
         <v>210</v>
       </c>
@@ -27005,7 +27007,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="34" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:121">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -27369,7 +27371,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="35" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:121">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -27717,7 +27719,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="36" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:121">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -28073,7 +28075,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="37" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:121">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -28437,7 +28439,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="38" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:121">
       <c r="A38" t="s">
         <v>225</v>
       </c>
@@ -28793,7 +28795,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="39" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:121">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -29149,7 +29151,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="40" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:121">
       <c r="A40" t="s">
         <v>231</v>
       </c>
@@ -29513,7 +29515,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="41" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:121">
       <c r="A41" t="s">
         <v>234</v>
       </c>
@@ -29877,7 +29879,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="42" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:121">
       <c r="A42" t="s">
         <v>237</v>
       </c>
@@ -30233,7 +30235,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="43" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:121">
       <c r="A43" t="s">
         <v>240</v>
       </c>
@@ -30589,7 +30591,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="44" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:121">
       <c r="A44" t="s">
         <v>243</v>
       </c>
@@ -30953,7 +30955,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="45" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:121">
       <c r="A45" t="s">
         <v>246</v>
       </c>
@@ -31309,7 +31311,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="46" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:121">
       <c r="A46" t="s">
         <v>249</v>
       </c>
@@ -31665,7 +31667,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="47" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:121">
       <c r="A47" t="s">
         <v>252</v>
       </c>
@@ -32029,7 +32031,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="48" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:121">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -32385,7 +32387,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:121">
       <c r="A49" t="s">
         <v>258</v>
       </c>
@@ -32741,7 +32743,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="50" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:121">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -33097,7 +33099,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="51" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:121">
       <c r="A51" t="s">
         <v>264</v>
       </c>
@@ -33461,7 +33463,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="52" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:121">
       <c r="A52" t="s">
         <v>267</v>
       </c>
@@ -33830,6 +33832,11 @@
     <sortCondition ref="C2:C52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>